--- a/docs/ST3/ST3_16.08.2024_output.xlsx
+++ b/docs/ST3/ST3_16.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731670657.8474162</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731670659.79491</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670657.8474162.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670659.79491.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.54</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.54</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731670659.8088455</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731670660.3565514</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670659.8088455.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670660.3565514.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.54</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.52</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.02000000000003865</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731670661.7128668</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731670662.6479397</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670661.7128668.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670662.6479397.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>271.74</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>278.19</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>6.449999999999989</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>2.37</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731670663.3702924</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731670664.7140043</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670663.3702924.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670664.7140043.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>278.03</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>277.78</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731670672.886087</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731670674.659095</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670672.886087.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670674.659095.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>277.54</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.54</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731670674.674056</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731670675.101879</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670674.674056.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670675.101879.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>277.54</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>277.52</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.02000000000003865</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731670676.3039606</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731670677.1817775</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670676.3039606.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670677.1817775.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>271.74</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>278.19</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>6.449999999999989</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>2.37</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731670677.7801156</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731670679.0010486</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670677.7801156.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670679.0010486.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278.03</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>277.78</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731670686.4382732</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731670688.126817</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670686.4382732.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670688.126817.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>277.98</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>277.92</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731670688.295942</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731670688.6585324</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670688.295942.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670688.6585324.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>278.12</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>278.18</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731670691.0682333</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731670694.5187113</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670691.0682333.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670694.5187113.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>278.41</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>278.06</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.3500000000000227</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1111,95 +1193,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731670697.1061146</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731670697.1061146.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731670697.1061146.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>278.4</v>
       </c>
-      <c r="J14" t="n">
-        <v>278.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>278.65</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731670700.7344654</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731670701.6578102</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670700.7344654.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670701.6578102.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>127.41</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>127.53</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731670704.38707</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731670706.6102235</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670704.38707.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670706.6102235.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>127.1</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>127.09</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.009999999999990905</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731670713.6611202</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731670714.1037493</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670713.6611202.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670714.1037493.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>127.92</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>128.08</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.1600000000000108</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731670717.0051277</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731670718.065703</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670717.0051277.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670718.065703.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6319</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6322.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-3.5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731670721.4486158</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731670722.430495</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670721.4486158.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670722.430495.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6307.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6309</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731670726.483952</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731670727.8915677</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670726.483952.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670727.8915677.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6299</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6312.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-13.5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731670728.3508763</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731670729.0090618</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670728.3508763.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670729.0090618.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6314</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6322</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>8</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731670731.4168866</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731670731.9416192</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731670731.4168866.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731670731.9416192.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>494.75</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>494.8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.05000000000001137</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731670746.1416101</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731670747.507002</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670746.1416101.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670747.507002.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>222.99</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>223.61</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.6200000000000045</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731670752.559954</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731670754.239571</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670752.559954.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670754.239571.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>223.52</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>224.04</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.5199999999999818</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731670754.254505</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731670755.0030203</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670754.254505.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670755.0030203.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>224.04</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>223.75</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.289999999999992</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731670765.6602976</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731670766.55909</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731670765.6602976.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731670766.55909.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1020</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1018</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>2</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731670766.934463</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731670767.4627903</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731670766.934463.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731670767.4627903.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1018</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1014.8</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731670775.9752645</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731670776.5686893</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670775.9752645.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670776.5686893.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>12.119</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>12.113</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.006000000000000227</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731670777.8644574</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731670780.4878767</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670777.8644574.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670780.4878767.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>12.138</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>12.117</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.02099999999999902</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731670783.8209674</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731670784.5359962</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670783.8209674.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670784.5359962.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>12.111</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>12.093</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.01800000000000068</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1987,51 +2171,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731670786.151472</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731670787.2815835</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670786.151472.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670787.2815835.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>12.081</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>12.088</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.006999999999999673</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731670792.1979685</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731670793.053552</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670792.1979685.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670793.053552.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>124.9</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>125.12</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731670793.4633622</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731670794.0183709</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670793.4633622.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670794.0183709.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>125.02</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>125.08</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2143,51 +2345,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731670795.4172828</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731670796.2492445</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670795.4172828.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670796.2492445.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>125.02</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>124.62</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.3999999999999915</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2195,51 +2403,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731670796.9548495</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731670798.5115147</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670796.9548495.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670798.5115147.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>124.64</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>124.8</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -2247,51 +2461,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731670801.3866122</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731670803.5702822</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670801.3866122.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670803.5702822.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>125.38</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>125.38</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2299,51 +2519,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731670804.8741755</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731670805.5635967</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670804.8741755.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670805.5635967.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>126.14</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>127.22</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>1.079999999999998</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -2351,51 +2577,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731670806.7287483</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731670810.1238174</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731670806.7287483.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731670810.1238174.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>161.62</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>161.88</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.2599999999999909</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -2403,51 +2635,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731670814.5291502</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731670815.2881901</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731670814.5291502.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731670815.2881901.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>162.12</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>162.16</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.03999999999999204</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2455,95 +2693,107 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731670818.8718445</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731670818.8718445.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731670818.8718445.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>162.78</v>
       </c>
-      <c r="J40" t="n">
-        <v>162.78</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>162.94</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731670822.439876</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731670823.818071</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731670822.439876.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731670823.818071.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>49.7</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>49.67</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2551,51 +2801,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731670828.6770868</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731670829.563443</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731670828.6770868.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731670829.563443.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>49.745</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>49.7</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.0449999999999946</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2603,51 +2859,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731670830.4201136</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731670832.8091228</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731670830.4201136.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731670832.8091228.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>49.68</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>49.71</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2655,95 +2917,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731670834.199788</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731670834.199788.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731670834.199788.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>49.78</v>
       </c>
-      <c r="J44" t="n">
-        <v>49.78</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>49.775</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.005000000000002558</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731670837.5180154</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731670839.8022337</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670837.5180154.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670839.8022337.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1379.8</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1377</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2751,51 +3025,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731670840.6830869</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731670841.4883046</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670840.6830869.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670841.4883046.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1377.2</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1374.8</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2803,51 +3083,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731670841.7191713</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731670843.515095</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670841.7191713.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670843.515095.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1375.6</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1380.2</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-4.600000000000136</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -2855,51 +3141,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731670848.9553115</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731670850.4831052</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670848.9553115.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670850.4831052.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1385.8</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1388</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2907,51 +3199,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731670856.9792573</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731670858.9315596</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670856.9792573.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670858.9315596.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>58.76</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>58.85</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.09000000000000341</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2959,51 +3257,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731670858.9475172</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731670859.607697</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670858.9475172.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670859.607697.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>58.85</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>58.79</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -3011,51 +3315,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731670861.054868</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731670862.4421978</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670861.054868.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670862.4421978.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>58.65</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>58.58</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3063,51 +3373,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731670862.7974029</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731670865.3024635</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670862.7974029.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670865.3024635.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>58.61</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>58.6</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3115,51 +3431,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731670871.7397625</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731670873.4593499</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670871.7397625.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670873.4593499.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>98.68000000000001</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>98.63</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.05000000000001137</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3167,51 +3489,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731670880.2485232</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731670880.6811683</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670880.2485232.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670880.6811683.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>99</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>99.22</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3219,51 +3547,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731670881.1210692</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731670881.731741</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670881.1210692.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670881.731741.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>99.16</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>99.31</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3271,51 +3605,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731670884.1664035</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731670884.7553804</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SELG1731670884.1664035.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SELG1731670884.7553804.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>54.48</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>54.5</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3323,51 +3663,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731670891.2452347</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731670893.543218</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731670891.2452347.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731670893.543218.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>54.36</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>54.68</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.3200000000000003</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.59</v>
       </c>
     </row>
@@ -3375,51 +3721,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731670904.1327798</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731670905.4239376</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670904.1327798.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670905.4239376.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>152.14</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>152.36</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.2200000000000273</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -3427,95 +3779,107 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731670908.2924314</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731670908.2924314.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731670908.2924314.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>0.3041</v>
       </c>
-      <c r="J59" t="n">
-        <v>0.3041</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>0.3056</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.001500000000000001</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731670914.1417975</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731670916.6639524</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670914.1417975.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670916.6639524.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>19.785</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>19.771</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.01399999999999935</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3523,51 +3887,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731670919.0349295</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731670921.1761405</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670919.0349295.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670921.1761405.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>19.733</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>19.764</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.03099999999999881</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3575,51 +3945,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731670924.5533695</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731670925.5328999</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670924.5533695.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670925.5328999.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>19.853</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>19.966</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.1129999999999995</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -3627,51 +4003,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731670926.460452</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731670926.7994292</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670926.460452.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670926.7994292.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>19.95</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>19.967</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.01699999999999946</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3679,95 +4061,107 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731670928.219893</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731670928.219893.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731670928.219893.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>19.959</v>
       </c>
-      <c r="J64" t="n">
-        <v>19.959</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>19.97</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.01099999999999923</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731670929.8862154</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731670932.4664104</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670929.8862154.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670932.4664104.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>676.35</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>675.4</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.9500000000000455</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3775,51 +4169,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731670933.9405842</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731670935.179594</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670933.9405842.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670935.179594.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>675.6</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>677.35</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-1.75</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -3827,51 +4227,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731670938.1478615</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731670938.8493052</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670938.1478615.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670938.8493052.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>674.7</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>672</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>2.700000000000045</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -3879,51 +4285,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731670939.2983735</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731670940.3434045</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670939.2983735.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670940.3434045.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>674.95</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>675.5</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.5499999999999545</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3931,51 +4343,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731670951.3502252</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731670952.8921683</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670951.3502252.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670952.8921683.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>148.42</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>148.16</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -3983,51 +4401,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731670955.7114913</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731670957.0139005</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670955.7114913.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670957.0139005.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>149.02</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>149.27</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.25</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -4035,44 +4459,50 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731670957.1502361</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731670957.1502361.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731670957.1502361.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>149.1</v>
       </c>
-      <c r="J71" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>149.02</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.07999999999998408</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -4133,19 +4563,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.71875</v>
+        <v>0.75</v>
       </c>
       <c r="E2" t="n">
-        <v>2.12</v>
+        <v>2.21</v>
       </c>
       <c r="F2" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -4177,19 +4607,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1129999999999995</v>
+        <v>0.1239999999999988</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02259999999999991</v>
+        <v>0.02479999999999976</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -4265,16 +4695,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0449999999999946</v>
+        <v>-0.04999999999999716</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01124999999999865</v>
+        <v>-0.01249999999999929</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.09</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F8" t="n">
         <v>-0.02</v>
@@ -4375,19 +4805,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5099999999999909</v>
+        <v>0.4300000000000068</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.169999999999997</v>
+        <v>0.1433333333333356</v>
       </c>
       <c r="E13" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="F13" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
@@ -4397,19 +4827,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2199999999999989</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.07333333333333296</v>
+        <v>-0.02000000000000076</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.14</v>
+        <v>-0.03999999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="15">
@@ -4529,19 +4959,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.001500000000000001</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.001500000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.49</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="21">
